--- a/Proyecto/PobladaExcel/personasNaturales.xlsx
+++ b/Proyecto/PobladaExcel/personasNaturales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Desktop\MBDA\MBDA-\Proyecto\PobladaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A9291-64DC-41EA-8A24-4A0839ADEE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B6EBCC-4B09-4622-8B53-36219A771E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12174,12 +12174,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -12274,7 +12280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -12285,6 +12291,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12601,8 +12609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="J603" sqref="J603"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A979" workbookViewId="0">
+      <selection activeCell="C722" sqref="C722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30054,7 +30062,7 @@
       <c r="B602" s="5" t="s">
         <v>2484</v>
       </c>
-      <c r="C602" s="5">
+      <c r="C602" s="10">
         <v>8895197305</v>
       </c>
       <c r="D602" s="5" t="s">
@@ -33505,7 +33513,7 @@
       <c r="B721" s="5" t="s">
         <v>2950</v>
       </c>
-      <c r="C721" s="5">
+      <c r="C721" s="11">
         <v>2258648479</v>
       </c>
       <c r="D721" s="5" t="s">
@@ -33534,7 +33542,7 @@
       <c r="B722" s="5" t="s">
         <v>2954</v>
       </c>
-      <c r="C722" s="5">
+      <c r="C722" s="11">
         <v>7103983878</v>
       </c>
       <c r="D722" s="5" t="s">

--- a/Proyecto/PobladaExcel/personasNaturales.xlsx
+++ b/Proyecto/PobladaExcel/personasNaturales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Desktop\MBDA\MBDA-\Proyecto\PobladaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538912D9-BA51-43C7-96F0-29A9B966B1BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9389B4-FBD8-4703-9775-3AA54CCE6936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -12174,7 +12174,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12199,6 +12199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -12212,12 +12218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12534,8 +12542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="J732" sqref="J732"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="F655" sqref="F655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14936,7 +14944,7 @@
       <c r="B83" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="6">
         <v>7785705350</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -14965,7 +14973,7 @@
       <c r="B84" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="6">
         <v>3619298027</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -14994,7 +15002,7 @@
       <c r="B85" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="6">
         <v>2510688193</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -15023,7 +15031,7 @@
       <c r="B86" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="6">
         <v>581228030</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -15052,7 +15060,7 @@
       <c r="B87" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="6">
         <v>979579029</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -15081,7 +15089,7 @@
       <c r="B88" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="6">
         <v>2773366819</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -15110,7 +15118,7 @@
       <c r="B89" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="6">
         <v>3829564993</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -15139,7 +15147,7 @@
       <c r="B90" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="6">
         <v>1833509529</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -15168,7 +15176,7 @@
       <c r="B91" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="6">
         <v>6188423487</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -15197,7 +15205,7 @@
       <c r="B92" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="6">
         <v>6540172698</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -33780,292 +33788,292 @@
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A733" s="1" t="s">
+      <c r="A733" s="5" t="s">
         <v>2996</v>
       </c>
-      <c r="B733" s="1" t="s">
+      <c r="B733" s="5" t="s">
         <v>2997</v>
       </c>
-      <c r="C733" s="1">
+      <c r="C733" s="5">
         <v>1442236020</v>
       </c>
-      <c r="D733" s="1" t="s">
+      <c r="D733" s="5" t="s">
         <v>2998</v>
       </c>
-      <c r="E733" s="1" t="s">
+      <c r="E733" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F733" s="1" t="s">
+      <c r="F733" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G733" s="1" t="s">
+      <c r="G733" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H733" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I733" s="1" t="s">
+      <c r="H733" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I733" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A734" s="1" t="s">
+      <c r="A734" s="5" t="s">
         <v>2999</v>
       </c>
-      <c r="B734" s="1" t="s">
+      <c r="B734" s="5" t="s">
         <v>3000</v>
       </c>
-      <c r="C734" s="1">
+      <c r="C734" s="5">
         <v>8182902750</v>
       </c>
-      <c r="D734" s="1" t="s">
+      <c r="D734" s="5" t="s">
         <v>3001</v>
       </c>
-      <c r="E734" s="1" t="s">
+      <c r="E734" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F734" s="1" t="s">
+      <c r="F734" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G734" s="1" t="s">
+      <c r="G734" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H734" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I734" s="1" t="s">
+      <c r="H734" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I734" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="5" t="s">
         <v>3002</v>
       </c>
-      <c r="B735" s="1" t="s">
+      <c r="B735" s="5" t="s">
         <v>3003</v>
       </c>
-      <c r="C735" s="1">
+      <c r="C735" s="5">
         <v>9399531885</v>
       </c>
-      <c r="D735" s="1" t="s">
+      <c r="D735" s="5" t="s">
         <v>3004</v>
       </c>
-      <c r="E735" s="1" t="s">
+      <c r="E735" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F735" s="1" t="s">
+      <c r="F735" s="5" t="s">
         <v>3005</v>
       </c>
-      <c r="G735" s="1" t="s">
+      <c r="G735" s="5" t="s">
         <v>3006</v>
       </c>
-      <c r="H735" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I735" s="1" t="s">
+      <c r="H735" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I735" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="5" t="s">
         <v>3007</v>
       </c>
-      <c r="B736" s="1" t="s">
+      <c r="B736" s="5" t="s">
         <v>3008</v>
       </c>
-      <c r="C736" s="1">
+      <c r="C736" s="5">
         <v>6712312616</v>
       </c>
-      <c r="D736" s="1" t="s">
+      <c r="D736" s="5" t="s">
         <v>3009</v>
       </c>
-      <c r="E736" s="1" t="s">
+      <c r="E736" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F736" s="1" t="s">
+      <c r="F736" s="5" t="s">
         <v>3010</v>
       </c>
-      <c r="G736" s="1" t="s">
+      <c r="G736" s="5" t="s">
         <v>3011</v>
       </c>
-      <c r="H736" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I736" s="1" t="s">
+      <c r="H736" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I736" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A737" s="1" t="s">
+      <c r="A737" s="5" t="s">
         <v>3012</v>
       </c>
-      <c r="B737" s="1" t="s">
+      <c r="B737" s="5" t="s">
         <v>3013</v>
       </c>
-      <c r="C737" s="1">
+      <c r="C737" s="5">
         <v>9585222521</v>
       </c>
-      <c r="D737" s="1" t="s">
+      <c r="D737" s="5" t="s">
         <v>3014</v>
       </c>
-      <c r="E737" s="1" t="s">
+      <c r="E737" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F737" s="1" t="s">
+      <c r="F737" s="5" t="s">
         <v>1990</v>
       </c>
-      <c r="G737" s="1" t="s">
+      <c r="G737" s="5" t="s">
         <v>3015</v>
       </c>
-      <c r="H737" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I737" s="1" t="s">
+      <c r="H737" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I737" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A738" s="1" t="s">
+      <c r="A738" s="5" t="s">
         <v>3016</v>
       </c>
-      <c r="B738" s="1" t="s">
+      <c r="B738" s="5" t="s">
         <v>3017</v>
       </c>
-      <c r="C738" s="1">
+      <c r="C738" s="5">
         <v>508674895</v>
       </c>
-      <c r="D738" s="1" t="s">
+      <c r="D738" s="5" t="s">
         <v>3018</v>
       </c>
-      <c r="E738" s="1" t="s">
+      <c r="E738" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F738" s="1" t="s">
+      <c r="F738" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G738" s="1" t="s">
+      <c r="G738" s="5" t="s">
         <v>3019</v>
       </c>
-      <c r="H738" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I738" s="1" t="s">
+      <c r="H738" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I738" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="5" t="s">
         <v>3020</v>
       </c>
-      <c r="B739" s="1" t="s">
+      <c r="B739" s="5" t="s">
         <v>3021</v>
       </c>
-      <c r="C739" s="1">
+      <c r="C739" s="5">
         <v>6026925671</v>
       </c>
-      <c r="D739" s="1" t="s">
+      <c r="D739" s="5" t="s">
         <v>3022</v>
       </c>
-      <c r="E739" s="1" t="s">
+      <c r="E739" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F739" s="1" t="s">
+      <c r="F739" s="5" t="s">
         <v>2596</v>
       </c>
-      <c r="G739" s="1" t="s">
+      <c r="G739" s="5" t="s">
         <v>3023</v>
       </c>
-      <c r="H739" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I739" s="1" t="s">
+      <c r="H739" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I739" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="5" t="s">
         <v>3024</v>
       </c>
-      <c r="B740" s="1" t="s">
+      <c r="B740" s="5" t="s">
         <v>3025</v>
       </c>
-      <c r="C740" s="1">
+      <c r="C740" s="5">
         <v>7480252394</v>
       </c>
-      <c r="D740" s="1" t="s">
+      <c r="D740" s="5" t="s">
         <v>3026</v>
       </c>
-      <c r="E740" s="1" t="s">
+      <c r="E740" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F740" s="1" t="s">
+      <c r="F740" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G740" s="1" t="s">
+      <c r="G740" s="5" t="s">
         <v>3027</v>
       </c>
-      <c r="H740" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I740" s="1" t="s">
+      <c r="H740" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I740" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A741" s="1" t="s">
+      <c r="A741" s="5" t="s">
         <v>3028</v>
       </c>
-      <c r="B741" s="1" t="s">
+      <c r="B741" s="5" t="s">
         <v>3029</v>
       </c>
-      <c r="C741" s="1">
+      <c r="C741" s="5">
         <v>2406814574</v>
       </c>
-      <c r="D741" s="1" t="s">
+      <c r="D741" s="5" t="s">
         <v>3030</v>
       </c>
-      <c r="E741" s="1" t="s">
+      <c r="E741" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F741" s="1" t="s">
+      <c r="F741" s="5" t="s">
         <v>1990</v>
       </c>
-      <c r="G741" s="1" t="s">
+      <c r="G741" s="5" t="s">
         <v>3031</v>
       </c>
-      <c r="H741" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I741" s="1" t="s">
+      <c r="H741" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I741" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A742" s="1" t="s">
+      <c r="A742" s="5" t="s">
         <v>3032</v>
       </c>
-      <c r="B742" s="1" t="s">
+      <c r="B742" s="5" t="s">
         <v>3033</v>
       </c>
-      <c r="C742" s="1">
+      <c r="C742" s="5">
         <v>8662744853</v>
       </c>
-      <c r="D742" s="1" t="s">
+      <c r="D742" s="5" t="s">
         <v>3034</v>
       </c>
-      <c r="E742" s="1" t="s">
+      <c r="E742" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F742" s="1" t="s">
+      <c r="F742" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G742" s="1" t="s">
+      <c r="G742" s="5" t="s">
         <v>3035</v>
       </c>
-      <c r="H742" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I742" s="1" t="s">
+      <c r="H742" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I742" s="5" t="s">
         <v>16</v>
       </c>
     </row>
